--- a/reports/results.xlsx
+++ b/reports/results.xlsx
@@ -8,34 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\mnapps\DominanceQueries\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538A31A1-3802-4412-A171-FF49E1F84E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F93F76-4B80-4D93-9523-F0717E2CCB2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E19CD79E-1BA2-4C91-BDB9-2094BB8A9E62}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{E19CD79E-1BA2-4C91-BDB9-2094BB8A9E62}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
+    <sheet name="Graphs" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
   <si>
     <t>Distribution</t>
   </si>
@@ -126,6 +117,1404 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="el-GR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Execution</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> times of each process</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>[Anti-Correlated, 4 Cores, 2 Dimensions]</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="el-GR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Generate Dataset</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Results!$C$4:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Results!$G$4:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.55300000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.038</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.052</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.2190000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A2B0-464B-93E1-185F285A4E0A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Gather &amp; Sort data</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Results!$C$4:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Results!$H$4:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.7519999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7109999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8019999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0469999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A2B0-464B-93E1-185F285A4E0A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Get Skyline</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Results!$C$4:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Results!$I$4:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.0509999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.794</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.9320000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A2B0-464B-93E1-185F285A4E0A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Get top 10 points</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Results!$C$4:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Results!$J$4:$J$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10.89</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.632999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49.908000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90.135000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A2B0-464B-93E1-185F285A4E0A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Get top 10 points of skyline</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Results!$C$4:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Results!$K$4:$K$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.61099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.633</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0710000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.1239999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-A2B0-464B-93E1-185F285A4E0A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="277971568"/>
+        <c:axId val="277965744"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="277971568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Samples (x10000)</a:t>
+                </a:r>
+                <a:endParaRPr lang="el-GR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="el-GR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="el-GR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="277965744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="277965744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Seconds</a:t>
+                </a:r>
+                <a:endParaRPr lang="el-GR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="el-GR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="el-GR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="277971568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="el-GR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="el-GR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>22423</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>102871</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Γράφημα 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62B1F5E0-7B3C-411E-B9E0-B98603CAC643}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -425,15 +1814,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DBEA462-3014-44F4-8051-ACB2DBCDFE38}">
-  <dimension ref="B3:K26"/>
+  <dimension ref="B3:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
@@ -578,7 +1967,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="1">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="D7">
         <v>10</v>
@@ -590,19 +1979,19 @@
         <v>2</v>
       </c>
       <c r="G7" s="2">
-        <v>20.571000000000002</v>
+        <v>4.2190000000000003</v>
       </c>
       <c r="H7" s="2">
-        <v>19.952000000000002</v>
+        <v>7.0469999999999997</v>
       </c>
       <c r="I7" s="2">
-        <v>71.36</v>
+        <v>5.9320000000000004</v>
       </c>
       <c r="J7" s="2">
-        <v>906.18399999999997</v>
+        <v>90.135000000000005</v>
       </c>
       <c r="K7" s="2">
-        <v>28.151</v>
+        <v>5.1239999999999997</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
@@ -610,32 +1999,31 @@
         <v>3</v>
       </c>
       <c r="C8" s="1">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="D8">
         <v>10</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F8">
         <v>2</v>
       </c>
       <c r="G8" s="2">
-        <f>G4</f>
-        <v>0.55300000000000005</v>
+        <v>20.571000000000002</v>
       </c>
       <c r="H8" s="2">
-        <v>3.23</v>
+        <v>19.952000000000002</v>
       </c>
       <c r="I8" s="2">
-        <v>1.5489999999999999</v>
+        <v>71.36</v>
       </c>
       <c r="J8" s="2">
-        <v>12.648999999999999</v>
+        <v>906.18399999999997</v>
       </c>
       <c r="K8" s="2">
-        <v>0.65</v>
+        <v>28.151</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
@@ -643,7 +2031,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="1">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D9">
         <v>10</v>
@@ -655,20 +2043,20 @@
         <v>2</v>
       </c>
       <c r="G9" s="2">
-        <f>G5</f>
-        <v>1.038</v>
+        <f>G4</f>
+        <v>0.55300000000000005</v>
       </c>
       <c r="H9" s="2">
-        <v>3.7879999999999998</v>
+        <v>3.23</v>
       </c>
       <c r="I9" s="2">
-        <v>1.9450000000000001</v>
+        <v>1.5489999999999999</v>
       </c>
       <c r="J9" s="2">
-        <v>26.8</v>
+        <v>12.648999999999999</v>
       </c>
       <c r="K9" s="2">
-        <v>1.663</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
@@ -676,7 +2064,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D10">
         <v>10</v>
@@ -688,20 +2076,20 @@
         <v>2</v>
       </c>
       <c r="G10" s="2">
-        <f>G6</f>
-        <v>2.052</v>
+        <f>G5</f>
+        <v>1.038</v>
       </c>
       <c r="H10" s="2">
-        <v>4.5419999999999998</v>
+        <v>3.7879999999999998</v>
       </c>
       <c r="I10" s="2">
-        <v>2.74</v>
+        <v>1.9450000000000001</v>
       </c>
       <c r="J10" s="2">
-        <v>47.73</v>
+        <v>26.8</v>
       </c>
       <c r="K10" s="2">
-        <v>2.931</v>
+        <v>1.663</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
@@ -709,7 +2097,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="1">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -721,20 +2109,20 @@
         <v>2</v>
       </c>
       <c r="G11" s="2">
-        <f>G7</f>
-        <v>20.571000000000002</v>
+        <f>G6</f>
+        <v>2.052</v>
       </c>
       <c r="H11" s="2">
-        <v>29.687999999999999</v>
+        <v>4.5419999999999998</v>
       </c>
       <c r="I11" s="2">
-        <v>77.787000000000006</v>
+        <v>2.74</v>
       </c>
       <c r="J11" s="2">
-        <v>997.88900000000001</v>
+        <v>47.73</v>
       </c>
       <c r="K11" s="2">
-        <v>37.139000000000003</v>
+        <v>2.931</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
@@ -742,31 +2130,32 @@
         <v>3</v>
       </c>
       <c r="C12" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D12">
         <v>10</v>
       </c>
       <c r="E12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G12" s="2">
-        <v>2.8780000000000001</v>
+        <f>G7</f>
+        <v>4.2190000000000003</v>
       </c>
       <c r="H12" s="2">
-        <v>4.7930000000000001</v>
+        <v>7.6360000000000001</v>
       </c>
       <c r="I12" s="2">
-        <v>31.55</v>
+        <v>6.6619999999999999</v>
       </c>
       <c r="J12" s="2">
-        <v>529.45000000000005</v>
+        <v>126.736</v>
       </c>
       <c r="K12" s="2">
-        <v>25.591000000000001</v>
+        <v>7.0709999999999997</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
@@ -774,48 +2163,97 @@
         <v>3</v>
       </c>
       <c r="C13" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D13">
         <v>10</v>
       </c>
       <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13" s="2">
+        <f>G8</f>
+        <v>20.571000000000002</v>
+      </c>
+      <c r="H13" s="2">
+        <v>29.687999999999999</v>
+      </c>
+      <c r="I13" s="2">
+        <v>77.787000000000006</v>
+      </c>
+      <c r="J13" s="2">
+        <v>997.88900000000001</v>
+      </c>
+      <c r="K13" s="2">
+        <v>37.139000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1">
+        <v>100</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14">
         <v>4</v>
       </c>
-      <c r="F13">
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14" s="2">
+        <v>2.8780000000000001</v>
+      </c>
+      <c r="H14" s="2">
+        <v>4.7930000000000001</v>
+      </c>
+      <c r="I14" s="2">
+        <v>31.55</v>
+      </c>
+      <c r="J14" s="2">
+        <v>529.45000000000005</v>
+      </c>
+      <c r="K14" s="2">
+        <v>25.591000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1">
+        <v>100</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15">
         <v>4</v>
       </c>
-      <c r="G13" s="2">
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15" s="2">
         <v>3.706</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H15" s="2">
         <v>5.3079999999999998</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I15" s="2">
         <v>208.959</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J15" s="2">
         <v>2461.2660000000001</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K15" s="2">
         <v>143.327</v>
       </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C14" s="1"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C15" s="1"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C16" s="1"/>
@@ -898,14 +2336,45 @@
       <c r="K25" s="2"/>
     </row>
     <row r="26" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C26" s="1"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
+    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C27" s="1"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+    </row>
+    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5623001-6ADE-41EB-B4F5-86692CD838B8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/reports/results.xlsx
+++ b/reports/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\mnapps\DominanceQueries\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F93F76-4B80-4D93-9523-F0717E2CCB2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C753FD-3713-4F93-8C7D-85B0AA8D1D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{E19CD79E-1BA2-4C91-BDB9-2094BB8A9E62}"/>
   </bookViews>
@@ -918,7 +918,862 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="el-GR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Execution times of each process</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>[Anti-Correlated, 4 Cores,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 1M Samples</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>]</a:t>
+            </a:r>
+            <a:endParaRPr lang="el-GR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="el-GR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Generate dataset</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Results!$F$11,Results!$F$14,Results!$F$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Results!$G$11,Results!$G$14,Results!$G$15)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.052</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8780000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.706</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7856-4961-830C-A21ADCC2DBE5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Gather and sort data</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-7856-4961-830C-A21ADCC2DBE5}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Results!$F$11,Results!$F$14,Results!$F$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Results!$H$11,Results!$H$14,Results!$H$15)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.5419999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.7930000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.3079999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7856-4961-830C-A21ADCC2DBE5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Get skyline</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Results!$F$11,Results!$F$14,Results!$F$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Results!$I$11,Results!$I$14,Results!$I$15)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.74</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31.55</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>208.959</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7856-4961-830C-A21ADCC2DBE5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Get top 10 points</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Results!$F$11,Results!$F$14,Results!$F$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Results!$J$11,Results!$J$14,Results!$J$15)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>47.73</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>529.45000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2461.2660000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-7856-4961-830C-A21ADCC2DBE5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Get top 10 points of skyline</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Results!$F$11,Results!$F$14,Results!$F$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Results!$K$11,Results!$K$14,Results!$K$15)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.931</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.591000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>143.327</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-7856-4961-830C-A21ADCC2DBE5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="717294320"/>
+        <c:axId val="717309712"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="717294320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="4"/>
+          <c:min val="2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Dimensions</a:t>
+                </a:r>
+                <a:endParaRPr lang="el-GR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="el-GR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="el-GR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="717309712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="717309712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Seconds</a:t>
+                </a:r>
+                <a:endParaRPr lang="el-GR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="el-GR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="el-GR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="717294320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="el-GR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="el-GR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1474,20 +2329,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>586740</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>22423</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>56713</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>102871</xdr:rowOff>
+      <xdr:rowOff>91441</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1509,6 +2880,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>179070</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>154304</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>16702</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>99059</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Γράφημα 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABA66755-178B-425C-9393-1306A5679728}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1816,8 +3225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DBEA462-3014-44F4-8051-ACB2DBCDFE38}">
   <dimension ref="B3:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2369,7 +3778,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/reports/results.xlsx
+++ b/reports/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\mnapps\DominanceQueries\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C753FD-3713-4F93-8C7D-85B0AA8D1D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C6CBE1-F49F-4112-9BD8-FF1E7D0D1766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{E19CD79E-1BA2-4C91-BDB9-2094BB8A9E62}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{E19CD79E-1BA2-4C91-BDB9-2094BB8A9E62}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
   <si>
     <t>Distribution</t>
   </si>
@@ -59,6 +59,15 @@
   </si>
   <si>
     <t>Dimensions</t>
+  </si>
+  <si>
+    <t>Correlated</t>
+  </si>
+  <si>
+    <t>Gaussian</t>
+  </si>
+  <si>
+    <t>Uniform</t>
   </si>
 </sst>
 </file>
@@ -1733,6 +1742,615 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="el-GR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Execution</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> time of each distribution</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>[4 Cores, 1M Samples, 2 Dimensions]</a:t>
+            </a:r>
+            <a:endParaRPr lang="el-GR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="el-GR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Generate Dataset</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Results!$B$6,Results!$B$16,Results!$B$18,Results!$B$20)</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Anti-Correlated</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Correlated</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Gaussian</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Uniform</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Results!$G$6,Results!$G$16,Results!$G$18,Results!$G$20)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.052</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.032</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.177</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3923999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0045-4BB6-844B-AE289E32E5E6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Gather and sort data</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Results!$B$6,Results!$B$16,Results!$B$18,Results!$B$20)</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Anti-Correlated</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Correlated</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Gaussian</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Uniform</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Results!$H$6,Results!$H$16,Results!$H$18,Results!$H$20)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.8019999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.6219999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5808999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.5454999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0045-4BB6-844B-AE289E32E5E6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Get skyline</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Results!$B$6,Results!$B$16,Results!$B$18,Results!$B$20)</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Anti-Correlated</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Correlated</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Gaussian</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Uniform</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Results!$I$6,Results!$I$16,Results!$I$18,Results!$I$20)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.7850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8320000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4477000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6113599999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0045-4BB6-844B-AE289E32E5E6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Get top 10 points</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Results!$B$6,Results!$B$16,Results!$B$18,Results!$B$20)</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Anti-Correlated</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Correlated</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Gaussian</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Uniform</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Results!$J$6,Results!$J$16,Results!$J$18,Results!$J$20)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>49.908000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41.022199999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41.975999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0045-4BB6-844B-AE289E32E5E6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Get top 10 skyline points</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Results!$B$6,Results!$B$16,Results!$B$18,Results!$B$20)</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Anti-Correlated</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Correlated</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Gaussian</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Uniform</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Results!$K$6,Results!$K$16,Results!$K$18,Results!$K$20)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.0710000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.49399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.67310000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2748999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-0045-4BB6-844B-AE289E32E5E6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1356784303"/>
+        <c:axId val="1009966847"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1356784303"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="el-GR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1009966847"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1009966847"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="50"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="el-GR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1356784303"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="el-GR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="el-GR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1813,6 +2431,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2826,6 +3484,509 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -2918,6 +4079,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>255270</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>130507</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Γράφημα 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E4B50C5-99E7-459E-85AA-C9CCC33B23CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3225,8 +4424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DBEA462-3014-44F4-8051-ACB2DBCDFE38}">
   <dimension ref="B3:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3665,54 +4864,198 @@
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C16" s="1"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="1">
+        <v>100</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16" s="2">
+        <v>2.032</v>
+      </c>
+      <c r="H16" s="2">
+        <v>4.6219999999999999</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1.8320000000000001</v>
+      </c>
+      <c r="J16" s="2">
+        <v>23.997</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0.49399999999999999</v>
+      </c>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C17" s="1"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="1">
+        <v>100</v>
+      </c>
+      <c r="D17">
+        <v>10</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17" s="2">
+        <v>3.036</v>
+      </c>
+      <c r="H17" s="2">
+        <v>5.1230000000000002</v>
+      </c>
+      <c r="I17" s="2">
+        <v>8.1140000000000008</v>
+      </c>
+      <c r="J17" s="2">
+        <v>162.28800000000001</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0.52349999999999997</v>
+      </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C18" s="1"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="1">
+        <v>100</v>
+      </c>
+      <c r="D18">
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18" s="2">
+        <v>2.177</v>
+      </c>
+      <c r="H18" s="2">
+        <v>5.5808999999999997</v>
+      </c>
+      <c r="I18" s="2">
+        <v>2.4477000000000002</v>
+      </c>
+      <c r="J18" s="2">
+        <v>41.022199999999998</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0.67310000000000003</v>
+      </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C19" s="1"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="1">
+        <v>100</v>
+      </c>
+      <c r="D19">
+        <v>10</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19" s="2">
+        <v>2.9899</v>
+      </c>
+      <c r="H19" s="2">
+        <v>5.2220000000000004</v>
+      </c>
+      <c r="I19" s="2">
+        <v>27.650700000000001</v>
+      </c>
+      <c r="J19" s="2">
+        <v>474.03894000000003</v>
+      </c>
+      <c r="K19" s="2">
+        <v>5.5513599999999999</v>
+      </c>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C20" s="1"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="1">
+        <v>100</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20" s="2">
+        <v>2.3923999999999999</v>
+      </c>
+      <c r="H20" s="2">
+        <v>6.5454999999999997</v>
+      </c>
+      <c r="I20" s="2">
+        <v>2.6113599999999999</v>
+      </c>
+      <c r="J20" s="2">
+        <v>41.975999999999999</v>
+      </c>
+      <c r="K20" s="2">
+        <v>1.2748999999999999</v>
+      </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C21" s="1"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="1">
+        <v>100</v>
+      </c>
+      <c r="D21">
+        <v>10</v>
+      </c>
+      <c r="E21">
+        <v>4</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21" s="2">
+        <v>3.49</v>
+      </c>
+      <c r="H21" s="2">
+        <v>6.2324000000000002</v>
+      </c>
+      <c r="I21" s="2">
+        <v>23.0442</v>
+      </c>
+      <c r="J21" s="2">
+        <v>410.30020000000002</v>
+      </c>
+      <c r="K21" s="2">
+        <v>12.419969999999999</v>
+      </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C22" s="1"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -3720,7 +5063,7 @@
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C23" s="1"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -3728,7 +5071,7 @@
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C24" s="1"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -3736,7 +5079,7 @@
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C25" s="1"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -3744,7 +5087,7 @@
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C26" s="1"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -3752,7 +5095,7 @@
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C27" s="1"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -3760,7 +5103,7 @@
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
@@ -3777,8 +5120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5623001-6ADE-41EB-B4F5-86692CD838B8}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R32" sqref="R32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/reports/results.xlsx
+++ b/reports/results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\mnapps\DominanceQueries\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C6CBE1-F49F-4112-9BD8-FF1E7D0D1766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF0D987-AC91-40FD-BB92-85AB2C9C569B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{E19CD79E-1BA2-4C91-BDB9-2094BB8A9E62}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E19CD79E-1BA2-4C91-BDB9-2094BB8A9E62}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -4414,7 +4414,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4424,8 +4424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DBEA462-3014-44F4-8051-ACB2DBCDFE38}">
   <dimension ref="B3:K28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5120,8 +5120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5623001-6ADE-41EB-B4F5-86692CD838B8}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R32" sqref="R32"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/reports/results.xlsx
+++ b/reports/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\mnapps\DominanceQueries\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF0D987-AC91-40FD-BB92-85AB2C9C569B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D76F0CF-7FBD-4C79-896B-40A84282C279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E19CD79E-1BA2-4C91-BDB9-2094BB8A9E62}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{E19CD79E-1BA2-4C91-BDB9-2094BB8A9E62}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="15">
   <si>
     <t>Distribution</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>Uniform</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -2351,6 +2354,1618 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="el-GR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Execution time per number of cores</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>[Anti-Correlated, 1M Sampes, 3 Dimensions]</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="el-GR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Get top 10 Skyline Points</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Results!$E$22:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Results!$K$22:$K$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>43.666200000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36.819000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.118120000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F713-464B-BA7C-C53D19A3B59C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1855946655"/>
+        <c:axId val="1855950815"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1855946655"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Cores</a:t>
+                </a:r>
+                <a:endParaRPr lang="el-GR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="el-GR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="el-GR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1855950815"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1855950815"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Seconds</a:t>
+                </a:r>
+                <a:endParaRPr lang="el-GR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="el-GR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="el-GR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1855946655"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="el-GR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="el-GR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="el-GR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Execution time per number of cores</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>[Anti-Correlated, 1M Sampes, 3 Dimensions]</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="el-GR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Get top 10 points</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Results!$E$22:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Results!$J$22:$J$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>843.91520000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>644.976</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>604.92679999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-12ED-41A5-890B-7960BE16974A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="95665535"/>
+        <c:axId val="95670527"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="95665535"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="el-GR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="95670527"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="95670527"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="el-GR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="95665535"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="el-GR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="el-GR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="el-GR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Execution time per number of cores</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>[Anti-Correlated, 1M Sampes, 3 Dimensions]</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="el-GR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Get skyline points</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Results!$E$22:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Results!$I$22:$I$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>35.476869999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36.376199999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33.896299999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1961-4937-B080-77C1A7A04356}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="433098863"/>
+        <c:axId val="433101359"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="433098863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="el-GR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="433101359"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="433101359"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="el-GR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="433098863"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="el-GR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="el-GR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="el-GR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Execution time per number of cores</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>[Anti-Correlated, 1M Sampes, 3 Dimensions]</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="el-GR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Gather and sort data</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Results!$E$22:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Results!$H$22:$H$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.2888999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.2553000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8982999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7692-40D8-A737-2E84887F9AF6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="433094287"/>
+        <c:axId val="433081807"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="433094287"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="el-GR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="433081807"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="433081807"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="el-GR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="433094287"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="el-GR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="el-GR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2471,6 +4086,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3987,6 +5762,2070 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -4117,6 +7956,158 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>484094</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>116541</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>179294</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>170329</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Γράφημα 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C412A92-D4C7-407F-A060-7EFA79E3F901}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>349624</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>161365</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>44824</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>35859</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Γράφημα 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6A4F221-4CFD-484A-875C-D4C383802F41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>98612</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>161365</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>403412</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>35859</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Γράφημα 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3B95EC2-F59D-4364-B9E6-ED30E65848AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>546846</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>242046</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>8965</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Γράφημα 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B297A287-FDE5-4A3B-8175-6BD0D788FC34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4424,8 +8415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DBEA462-3014-44F4-8051-ACB2DBCDFE38}">
   <dimension ref="B3:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H22" activeCellId="1" sqref="E22:E24 H22:H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5056,28 +9047,100 @@
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C22" s="1"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="1">
+        <v>100</v>
+      </c>
+      <c r="D22">
+        <v>10</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="2">
+        <v>6.2888999999999999</v>
+      </c>
+      <c r="I22" s="2">
+        <v>35.476869999999998</v>
+      </c>
+      <c r="J22" s="2">
+        <v>843.91520000000003</v>
+      </c>
+      <c r="K22" s="2">
+        <v>43.666200000000003</v>
+      </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C23" s="1"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="1">
+        <v>100</v>
+      </c>
+      <c r="D23">
+        <v>10</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="2">
+        <v>5.2553000000000001</v>
+      </c>
+      <c r="I23" s="2">
+        <v>36.376199999999997</v>
+      </c>
+      <c r="J23" s="2">
+        <v>644.976</v>
+      </c>
+      <c r="K23" s="2">
+        <v>36.819000000000003</v>
+      </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C24" s="1"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="1">
+        <v>100</v>
+      </c>
+      <c r="D24">
+        <v>10</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="2">
+        <v>4.8982999999999999</v>
+      </c>
+      <c r="I24" s="2">
+        <v>33.896299999999997</v>
+      </c>
+      <c r="J24" s="2">
+        <v>604.92679999999996</v>
+      </c>
+      <c r="K24" s="2">
+        <v>30.118120000000001</v>
+      </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C25" s="1"/>
@@ -5120,8 +9183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5623001-6ADE-41EB-B4F5-86692CD838B8}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="K19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W45" sqref="W45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
